--- a/Statystyki_2018/obj/Release/Package/PackageTmp/Template/oglk_.xlsx
+++ b/Statystyki_2018/obj/Release/Package/PackageTmp/Template/oglk_.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E666EB4-A0D8-41DD-8AB6-B00FC8F3EBE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw 5" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Wyznaczenia i odroczenia 3" sheetId="3" r:id="rId3"/>
     <sheet name="efek. czas orzekania . 19 " sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Efektywny okres orzekania</t>
   </si>
@@ -71,25 +72,22 @@
     <t>K</t>
   </si>
   <si>
+    <t>Kop</t>
+  </si>
+  <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
-    <t>Kop</t>
-  </si>
-  <si>
-    <t>Ko</t>
-  </si>
-  <si>
-    <t>Kp</t>
-  </si>
-  <si>
     <t>Razem</t>
   </si>
   <si>
     <t>Kordyka Krystian</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Kowalewska Ula</t>
@@ -187,12 +185,6 @@
     <t>22</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <b/>
@@ -355,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="10">
     <font>
@@ -867,6 +859,26 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
       <protection locked="0"/>
@@ -879,22 +891,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -920,10 +916,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1284,47 +1276,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="1024" width="8.5546875" customWidth="1"/>
+    <col min="8" max="1024" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
+    <row r="1" ht="18">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="43"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1351,14 +1343,14 @@
         <v>9</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
-        <v>47</v>
+      <c r="E3" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>5</v>
@@ -1376,25 +1368,25 @@
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
       <c r="S3" s="31"/>
-      <c r="T3" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" ht="27.45" customHeight="1">
+      <c r="T3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="27.4" customHeight="1">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
-      <c r="C4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="29"/>
       <c r="F4" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
@@ -1406,93 +1398,93 @@
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
       <c r="P4" s="32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="32"/>
       <c r="R4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+    </row>
+    <row r="5">
       <c r="A5" s="31"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="31" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N5" s="31"/>
       <c r="O5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>57</v>
+      <c r="Q5" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="R5" s="31"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-    </row>
-    <row r="6" ht="55.8">
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+    </row>
+    <row r="6" ht="63.75" customHeight="1">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="31"/>
       <c r="G6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="L6" s="31"/>
       <c r="M6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O6" s="31"/>
       <c r="P6" s="31"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="29"/>
       <c r="R6" s="31"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
@@ -1561,7 +1553,7 @@
     </row>
     <row r="8">
       <c r="A8" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="47">
         <v>0</v>
@@ -1626,7 +1618,7 @@
     </row>
     <row r="9">
       <c r="A9" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="47">
         <v>0</v>
@@ -1691,7 +1683,7 @@
     </row>
     <row r="10">
       <c r="A10" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="47">
         <v>0</v>
@@ -1756,7 +1748,7 @@
     </row>
     <row r="11">
       <c r="A11" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="47">
         <v>0</v>
@@ -1821,7 +1813,7 @@
     </row>
     <row r="12">
       <c r="A12" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="47">
         <v>0</v>
@@ -1886,7 +1878,7 @@
     </row>
     <row r="13">
       <c r="A13" s="46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -1896,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H13" s="46">
         <v>0</v>
@@ -1943,7 +1935,7 @@
     </row>
     <row r="14">
       <c r="A14" s="46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -2000,7 +1992,7 @@
     </row>
     <row r="15">
       <c r="A15" s="46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -2114,7 +2106,7 @@
     </row>
     <row r="17">
       <c r="A17" s="46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -2171,10 +2163,10 @@
     </row>
     <row r="18">
       <c r="A18" s="46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -2231,7 +2223,7 @@
     <row r="19">
       <c r="A19" s="46"/>
       <c r="B19" s="46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -2288,7 +2280,7 @@
     <row r="20">
       <c r="A20" s="46"/>
       <c r="B20" s="46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -2345,7 +2337,7 @@
     <row r="21">
       <c r="A21" s="46"/>
       <c r="B21" s="46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -2402,7 +2394,7 @@
     <row r="22">
       <c r="A22" s="46"/>
       <c r="B22" s="46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -2459,7 +2451,7 @@
     <row r="23">
       <c r="A23" s="46"/>
       <c r="B23" s="46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -2515,13 +2507,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:S3"/>
     <mergeCell ref="T3:T6"/>
     <mergeCell ref="U3:U6"/>
     <mergeCell ref="C4:C6"/>
@@ -2537,6 +2522,13 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:S3"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
@@ -2557,56 +2549,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="L2" s="5"/>
     </row>
-    <row r="3" ht="13.8" customHeight="1">
-      <c r="A3" s="35" t="s">
+    <row r="3" ht="13.9" customHeight="1">
+      <c r="A3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -2634,7 +2626,7 @@
     </row>
     <row r="6">
       <c r="A6" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="46">
         <v>0</v>
@@ -2657,7 +2649,7 @@
     </row>
     <row r="7">
       <c r="A7" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="46">
         <v>0</v>
@@ -2680,7 +2672,7 @@
     </row>
     <row r="8">
       <c r="A8" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="46">
         <v>0</v>
@@ -2703,7 +2695,7 @@
     </row>
     <row r="9">
       <c r="A9" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="46">
         <v>0</v>
@@ -2726,7 +2718,7 @@
     </row>
     <row r="10">
       <c r="A10" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="46">
         <v>0</v>
@@ -2785,72 +2777,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="44.77734375" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" hidden="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4">
+    <row r="1" ht="18">
       <c r="A1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" ht="15.75">
+      <c r="B2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" ht="15.6">
-      <c r="B2" s="38" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="13">
         <v>2</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -2860,110 +2852,78 @@
       <c r="C5" s="16">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6">
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7">
       <c r="B7" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="16">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8">
       <c r="B8" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="16">
         <v>6</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9">
       <c r="B9" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="16">
         <v>7</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10">
       <c r="B10" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" s="16">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11">
       <c r="B11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="16">
         <v>9</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>37</v>
-      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12">
       <c r="B12" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="20">
         <v>10</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>37</v>
-      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2977,84 +2937,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="12" width="4.88671875" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" customWidth="1"/>
-    <col min="18" max="20" width="8.5546875" customWidth="1"/>
-    <col min="21" max="25" width="4.109375" customWidth="1"/>
-    <col min="26" max="26" width="7.109375" customWidth="1"/>
-    <col min="27" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" customWidth="1"/>
+    <col min="24" max="28" width="4.140625" customWidth="1"/>
+    <col min="29" max="29" width="7.140625" customWidth="1"/>
+    <col min="30" max="1028" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
       <c r="A1" s="23"/>
-      <c r="B1" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="39" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="40" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="W1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="X1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-    </row>
-    <row r="2" ht="16.2">
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+    </row>
+    <row r="2" ht="32.25">
       <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="26" t="s">
         <v>10</v>
       </c>
@@ -3064,562 +3032,422 @@
       <c r="E2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="H2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="27" t="s">
+      <c r="M2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="26" t="s">
+      <c r="O2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="Q2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="24" t="s">
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="Y2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="24" t="s">
+      <c r="AB2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="24" t="s">
+      <c r="AC2" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46">
-        <v>0</v>
-      </c>
-      <c r="C3" s="46">
-        <v>0</v>
-      </c>
-      <c r="D3" s="46">
-        <v>0</v>
-      </c>
-      <c r="E3" s="46">
-        <v>0</v>
-      </c>
-      <c r="F3" s="46">
-        <v>0</v>
-      </c>
-      <c r="G3" s="46">
-        <v>0</v>
-      </c>
-      <c r="H3" s="46">
-        <v>0</v>
-      </c>
-      <c r="I3" s="46">
-        <v>0</v>
-      </c>
-      <c r="J3" s="46">
-        <v>0</v>
-      </c>
-      <c r="K3" s="46">
-        <v>0</v>
-      </c>
-      <c r="L3" s="46">
-        <v>0</v>
-      </c>
-      <c r="M3" s="46">
-        <v>0</v>
-      </c>
-      <c r="N3" s="46">
-        <v>0</v>
-      </c>
-      <c r="O3" s="46">
-        <v>0</v>
-      </c>
-      <c r="P3" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="46">
-        <v>0</v>
-      </c>
-      <c r="R3" s="46">
-        <v>0</v>
-      </c>
-      <c r="S3" s="46">
-        <v>0</v>
-      </c>
-      <c r="T3" s="46">
-        <v>0</v>
-      </c>
-      <c r="U3" s="46">
-        <v>0</v>
-      </c>
-      <c r="V3" s="46">
-        <v>0</v>
-      </c>
-      <c r="W3" s="46">
-        <v>0</v>
-      </c>
-      <c r="X3" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="46" t="s">
+      <c r="C3" s="47">
+        <v>0</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0</v>
+      </c>
+      <c r="E3" s="47">
+        <v>0</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0</v>
+      </c>
+      <c r="G3" s="47">
+        <v>0</v>
+      </c>
+      <c r="H3" s="47">
+        <v>0</v>
+      </c>
+      <c r="I3" s="47">
+        <v>0</v>
+      </c>
+      <c r="J3" s="47">
+        <v>0</v>
+      </c>
+      <c r="K3" s="47">
+        <v>0</v>
+      </c>
+      <c r="L3" s="47">
+        <v>0</v>
+      </c>
+      <c r="M3" s="47">
+        <v>0</v>
+      </c>
+      <c r="N3" s="47">
+        <v>0</v>
+      </c>
+      <c r="O3" s="47">
+        <v>0</v>
+      </c>
+      <c r="P3" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>0</v>
+      </c>
+      <c r="R3" s="47">
+        <v>0</v>
+      </c>
+      <c r="S3" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="47" t="s">
+      <c r="C4" s="47">
+        <v>0</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0</v>
+      </c>
+      <c r="E4" s="47">
+        <v>0</v>
+      </c>
+      <c r="F4" s="47">
+        <v>0</v>
+      </c>
+      <c r="G4" s="47">
+        <v>0</v>
+      </c>
+      <c r="H4" s="47">
+        <v>0</v>
+      </c>
+      <c r="I4" s="47">
+        <v>0</v>
+      </c>
+      <c r="J4" s="47">
+        <v>0</v>
+      </c>
+      <c r="K4" s="47">
+        <v>0</v>
+      </c>
+      <c r="L4" s="47">
+        <v>0</v>
+      </c>
+      <c r="M4" s="47">
+        <v>0</v>
+      </c>
+      <c r="N4" s="47">
+        <v>0</v>
+      </c>
+      <c r="O4" s="47">
+        <v>0</v>
+      </c>
+      <c r="P4" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>0</v>
+      </c>
+      <c r="R4" s="47">
+        <v>0</v>
+      </c>
+      <c r="S4" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="46">
-        <v>0</v>
-      </c>
-      <c r="C4" s="46">
-        <v>0</v>
-      </c>
-      <c r="D4" s="46">
-        <v>0</v>
-      </c>
-      <c r="E4" s="46">
-        <v>0</v>
-      </c>
-      <c r="F4" s="46">
-        <v>0</v>
-      </c>
-      <c r="G4" s="46">
-        <v>0</v>
-      </c>
-      <c r="H4" s="46">
-        <v>0</v>
-      </c>
-      <c r="I4" s="46">
-        <v>0</v>
-      </c>
-      <c r="J4" s="46">
-        <v>0</v>
-      </c>
-      <c r="K4" s="46">
-        <v>0</v>
-      </c>
-      <c r="L4" s="46">
-        <v>0</v>
-      </c>
-      <c r="M4" s="46">
-        <v>0</v>
-      </c>
-      <c r="N4" s="46">
-        <v>0</v>
-      </c>
-      <c r="O4" s="46">
-        <v>0</v>
-      </c>
-      <c r="P4" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="46">
-        <v>0</v>
-      </c>
-      <c r="R4" s="46">
-        <v>0</v>
-      </c>
-      <c r="S4" s="46">
-        <v>0</v>
-      </c>
-      <c r="T4" s="46">
-        <v>0</v>
-      </c>
-      <c r="U4" s="46">
-        <v>0</v>
-      </c>
-      <c r="V4" s="46">
-        <v>0</v>
-      </c>
-      <c r="W4" s="46">
-        <v>0</v>
-      </c>
-      <c r="X4" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="47" t="s">
+      <c r="C5" s="47">
+        <v>0</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0</v>
+      </c>
+      <c r="G5" s="47">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="I5" s="47">
+        <v>0</v>
+      </c>
+      <c r="J5" s="47">
+        <v>0</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0</v>
+      </c>
+      <c r="L5" s="47">
+        <v>0</v>
+      </c>
+      <c r="M5" s="47">
+        <v>0</v>
+      </c>
+      <c r="N5" s="47">
+        <v>0</v>
+      </c>
+      <c r="O5" s="47">
+        <v>0</v>
+      </c>
+      <c r="P5" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>0</v>
+      </c>
+      <c r="R5" s="47">
+        <v>0</v>
+      </c>
+      <c r="S5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="46">
-        <v>0</v>
-      </c>
-      <c r="C5" s="46">
-        <v>0</v>
-      </c>
-      <c r="D5" s="46">
-        <v>0</v>
-      </c>
-      <c r="E5" s="46">
-        <v>0</v>
-      </c>
-      <c r="F5" s="46">
-        <v>0</v>
-      </c>
-      <c r="G5" s="46">
-        <v>0</v>
-      </c>
-      <c r="H5" s="46">
-        <v>0</v>
-      </c>
-      <c r="I5" s="46">
-        <v>0</v>
-      </c>
-      <c r="J5" s="46">
-        <v>0</v>
-      </c>
-      <c r="K5" s="46">
-        <v>0</v>
-      </c>
-      <c r="L5" s="46">
-        <v>0</v>
-      </c>
-      <c r="M5" s="46">
-        <v>0</v>
-      </c>
-      <c r="N5" s="46">
-        <v>0</v>
-      </c>
-      <c r="O5" s="46">
-        <v>0</v>
-      </c>
-      <c r="P5" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="46">
-        <v>0</v>
-      </c>
-      <c r="R5" s="46">
-        <v>0</v>
-      </c>
-      <c r="S5" s="46">
-        <v>0</v>
-      </c>
-      <c r="T5" s="46">
-        <v>0</v>
-      </c>
-      <c r="U5" s="46">
-        <v>0</v>
-      </c>
-      <c r="V5" s="46">
-        <v>0</v>
-      </c>
-      <c r="W5" s="46">
-        <v>0</v>
-      </c>
-      <c r="X5" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="47" t="s">
+      <c r="C6" s="47">
+        <v>0</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0</v>
+      </c>
+      <c r="I6" s="47">
+        <v>0</v>
+      </c>
+      <c r="J6" s="47">
+        <v>0</v>
+      </c>
+      <c r="K6" s="47">
+        <v>0</v>
+      </c>
+      <c r="L6" s="47">
+        <v>0</v>
+      </c>
+      <c r="M6" s="47">
+        <v>0</v>
+      </c>
+      <c r="N6" s="47">
+        <v>0</v>
+      </c>
+      <c r="O6" s="47">
+        <v>0</v>
+      </c>
+      <c r="P6" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>0</v>
+      </c>
+      <c r="R6" s="47">
+        <v>0</v>
+      </c>
+      <c r="S6" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="46">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46">
-        <v>0</v>
-      </c>
-      <c r="D6" s="46">
-        <v>0</v>
-      </c>
-      <c r="E6" s="46">
-        <v>0</v>
-      </c>
-      <c r="F6" s="46">
-        <v>0</v>
-      </c>
-      <c r="G6" s="46">
-        <v>0</v>
-      </c>
-      <c r="H6" s="46">
-        <v>0</v>
-      </c>
-      <c r="I6" s="46">
-        <v>0</v>
-      </c>
-      <c r="J6" s="46">
-        <v>0</v>
-      </c>
-      <c r="K6" s="46">
-        <v>0</v>
-      </c>
-      <c r="L6" s="46">
-        <v>0</v>
-      </c>
-      <c r="M6" s="46">
-        <v>0</v>
-      </c>
-      <c r="N6" s="46">
-        <v>0</v>
-      </c>
-      <c r="O6" s="46">
-        <v>0</v>
-      </c>
-      <c r="P6" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="46">
-        <v>0</v>
-      </c>
-      <c r="R6" s="46">
-        <v>0</v>
-      </c>
-      <c r="S6" s="46">
-        <v>0</v>
-      </c>
-      <c r="T6" s="46">
-        <v>0</v>
-      </c>
-      <c r="U6" s="46">
-        <v>0</v>
-      </c>
-      <c r="V6" s="46">
-        <v>0</v>
-      </c>
-      <c r="W6" s="46">
-        <v>0</v>
-      </c>
-      <c r="X6" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="47" t="s">
+      <c r="C7" s="47">
+        <v>0</v>
+      </c>
+      <c r="D7" s="47">
+        <v>0</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0</v>
+      </c>
+      <c r="F7" s="47">
+        <v>0</v>
+      </c>
+      <c r="G7" s="47">
+        <v>0</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0</v>
+      </c>
+      <c r="I7" s="47">
+        <v>0</v>
+      </c>
+      <c r="J7" s="47">
+        <v>0</v>
+      </c>
+      <c r="K7" s="47">
+        <v>0</v>
+      </c>
+      <c r="L7" s="47">
+        <v>0</v>
+      </c>
+      <c r="M7" s="47">
+        <v>0</v>
+      </c>
+      <c r="N7" s="47">
+        <v>0</v>
+      </c>
+      <c r="O7" s="47">
+        <v>0</v>
+      </c>
+      <c r="P7" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>0</v>
+      </c>
+      <c r="R7" s="47">
+        <v>0</v>
+      </c>
+      <c r="S7" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="46">
-        <v>0</v>
-      </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
-      <c r="D7" s="46">
-        <v>0</v>
-      </c>
-      <c r="E7" s="46">
-        <v>0</v>
-      </c>
-      <c r="F7" s="46">
-        <v>0</v>
-      </c>
-      <c r="G7" s="46">
-        <v>0</v>
-      </c>
-      <c r="H7" s="46">
-        <v>0</v>
-      </c>
-      <c r="I7" s="46">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46">
-        <v>0</v>
-      </c>
-      <c r="K7" s="46">
-        <v>0</v>
-      </c>
-      <c r="L7" s="46">
-        <v>0</v>
-      </c>
-      <c r="M7" s="46">
-        <v>0</v>
-      </c>
-      <c r="N7" s="46">
-        <v>0</v>
-      </c>
-      <c r="O7" s="46">
-        <v>0</v>
-      </c>
-      <c r="P7" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="46">
-        <v>0</v>
-      </c>
-      <c r="R7" s="46">
-        <v>0</v>
-      </c>
-      <c r="S7" s="46">
-        <v>0</v>
-      </c>
-      <c r="T7" s="46">
-        <v>0</v>
-      </c>
-      <c r="U7" s="46">
-        <v>0</v>
-      </c>
-      <c r="V7" s="46">
-        <v>0</v>
-      </c>
-      <c r="W7" s="46">
-        <v>0</v>
-      </c>
-      <c r="X7" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="46">
-        <v>0</v>
-      </c>
-      <c r="C8" s="46">
-        <v>0</v>
-      </c>
-      <c r="D8" s="46">
-        <v>0</v>
-      </c>
-      <c r="E8" s="46">
-        <v>0</v>
-      </c>
-      <c r="F8" s="46">
-        <v>0</v>
-      </c>
-      <c r="G8" s="46">
-        <v>0</v>
-      </c>
-      <c r="H8" s="46">
-        <v>0</v>
-      </c>
-      <c r="I8" s="46">
-        <v>0</v>
-      </c>
-      <c r="J8" s="46">
-        <v>0</v>
-      </c>
-      <c r="K8" s="46">
-        <v>0</v>
-      </c>
-      <c r="L8" s="46">
-        <v>0</v>
-      </c>
-      <c r="M8" s="46">
-        <v>0</v>
-      </c>
-      <c r="N8" s="46">
-        <v>0</v>
-      </c>
-      <c r="O8" s="46">
-        <v>0</v>
-      </c>
-      <c r="P8" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="46">
-        <v>0</v>
-      </c>
-      <c r="R8" s="46">
-        <v>0</v>
-      </c>
-      <c r="S8" s="46">
-        <v>0</v>
-      </c>
-      <c r="T8" s="46">
-        <v>0</v>
-      </c>
-      <c r="U8" s="46">
-        <v>0</v>
-      </c>
-      <c r="V8" s="46">
-        <v>0</v>
-      </c>
-      <c r="W8" s="46">
-        <v>0</v>
-      </c>
-      <c r="X8" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>18</v>
+      <c r="C8" s="47">
+        <v>0</v>
+      </c>
+      <c r="D8" s="47">
+        <v>0</v>
+      </c>
+      <c r="E8" s="47">
+        <v>0</v>
+      </c>
+      <c r="F8" s="47">
+        <v>0</v>
+      </c>
+      <c r="G8" s="47">
+        <v>0</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0</v>
+      </c>
+      <c r="I8" s="47">
+        <v>0</v>
+      </c>
+      <c r="J8" s="47">
+        <v>0</v>
+      </c>
+      <c r="K8" s="47">
+        <v>0</v>
+      </c>
+      <c r="L8" s="47">
+        <v>0</v>
+      </c>
+      <c r="M8" s="47">
+        <v>0</v>
+      </c>
+      <c r="N8" s="47">
+        <v>0</v>
+      </c>
+      <c r="O8" s="47">
+        <v>0</v>
+      </c>
+      <c r="P8" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="47">
+        <v>0</v>
+      </c>
+      <c r="R8" s="47">
+        <v>0</v>
+      </c>
+      <c r="S8" s="47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:AC1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="58" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
